--- a/excel/policy/energy_vehicle.xlsx
+++ b/excel/policy/energy_vehicle.xlsx
@@ -1,15 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jalon/Desktop/181210_最新数据/政策进展数据汇总-统一了名字/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F058659-0ABA-4159-9177-1D024224ECFE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11720" yWindow="-17340" windowWidth="28800" windowHeight="16120"/>
+    <workbookView xWindow="11715" yWindow="-17340" windowWidth="28800" windowHeight="16125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="单位 辆" sheetId="1" r:id="rId1"/>
@@ -20,19 +16,19 @@
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="latlon_127030" type="6" refreshedVersion="0" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="latlon_127030" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" codePage="10008" sourceFile="/Users/jalon/Downloads/latlon_127030.txt" tab="0" comma="1">
       <textFields count="9">
         <textField/>
@@ -51,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="964">
   <si>
     <t>北京</t>
   </si>
@@ -1062,12 +1058,6 @@
   </si>
   <si>
     <t>省份</t>
-  </si>
-  <si>
-    <t>2016年</t>
-  </si>
-  <si>
-    <t>2017年</t>
   </si>
   <si>
     <t>河北</t>
@@ -2956,7 +2946,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3061,8 +3051,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2 2" xfId="1"/>
-    <cellStyle name="常规 3 2" xfId="2"/>
+    <cellStyle name="常规 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 3 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3078,7 +3068,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="latlon_127030" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="latlon_127030" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3343,44 +3333,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="8.83203125" style="11"/>
+    <col min="3" max="4" width="8.875" style="11"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>335</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>338</v>
+      <c r="C1" s="2">
+        <v>2016</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2017</v>
       </c>
       <c r="E1" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="F1" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3394,7 +3384,7 @@
         <v>116.413387</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3408,12 +3398,12 @@
         <v>117.20952</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C4" s="11">
         <v>1344</v>
@@ -3428,12 +3418,12 @@
         <v>114.892574</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C5" s="11">
         <v>385</v>
@@ -3448,12 +3438,12 @@
         <v>117.969396</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C6" s="11">
         <v>366</v>
@@ -3468,12 +3458,12 @@
         <v>119.60853400000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D7" s="11">
         <v>2131</v>
@@ -3485,12 +3475,12 @@
         <v>116.690577</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C8" s="11">
         <v>1693</v>
@@ -3502,12 +3492,12 @@
         <v>116.84558</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D9" s="11">
         <v>6336.0000000000009</v>
@@ -3519,12 +3509,12 @@
         <v>118.186463</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E10">
         <v>36.631262999999997</v>
@@ -3533,12 +3523,12 @@
         <v>114.54563</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D11" s="11">
         <v>2041</v>
@@ -3550,12 +3540,12 @@
         <v>115.67540200000001</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E12">
         <v>37.076684999999998</v>
@@ -3564,12 +3554,12 @@
         <v>114.511459</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E13">
         <v>38.879989000000002</v>
@@ -3578,12 +3568,12 @@
         <v>115.47145999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E14">
         <v>38.048312000000003</v>
@@ -3592,7 +3582,7 @@
         <v>114.521529</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -3612,12 +3602,12 @@
         <v>121.48054</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E16">
         <v>29.990911000000001</v>
@@ -3626,12 +3616,12 @@
         <v>122.21355699999999</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E17">
         <v>28.473278000000001</v>
@@ -3640,12 +3630,12 @@
         <v>119.929571</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E18">
         <v>28.662192999999998</v>
@@ -3654,12 +3644,12 @@
         <v>121.427432</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E19">
         <v>28.001086000000001</v>
@@ -3668,12 +3658,12 @@
         <v>120.706479</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E20">
         <v>29.866033999999999</v>
@@ -3682,12 +3672,12 @@
         <v>121.62857200000001</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E21">
         <v>28.975546000000001</v>
@@ -3696,12 +3686,12 @@
         <v>118.866597</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E22">
         <v>30.750973999999999</v>
@@ -3710,12 +3700,12 @@
         <v>120.763549</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E23">
         <v>30.036370000000002</v>
@@ -3724,12 +3714,12 @@
         <v>120.585477</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E24">
         <v>29.08464</v>
@@ -3738,12 +3728,12 @@
         <v>119.653441</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E25">
         <v>30.898963999999999</v>
@@ -3752,12 +3742,12 @@
         <v>120.09451799999999</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E26">
         <v>30.253081999999999</v>
@@ -3766,12 +3756,12 @@
         <v>120.21550999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E27">
         <v>33.355100999999998</v>
@@ -3780,12 +3770,12 @@
         <v>120.167541</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E28">
         <v>31.303564999999999</v>
@@ -3794,12 +3784,12 @@
         <v>120.592412</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E29">
         <v>31.986549</v>
@@ -3808,12 +3798,12 @@
         <v>120.901591</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C30" s="11">
         <v>3590.9999999999995</v>
@@ -3825,12 +3815,12 @@
         <v>119.228623</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E31">
         <v>32.064652000000002</v>
@@ -3839,12 +3829,12 @@
         <v>118.80242200000001</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D32" s="11">
         <v>1200</v>
@@ -3856,12 +3846,12 @@
         <v>119.98148399999999</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C33" s="11">
         <v>4000</v>
@@ -3876,12 +3866,12 @@
         <v>119.43049000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E34">
         <v>32.400675999999997</v>
@@ -3890,12 +3880,12 @@
         <v>119.41942299999999</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E35">
         <v>32.460675000000002</v>
@@ -3904,12 +3894,12 @@
         <v>119.929571</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D36" s="11">
         <v>3605</v>
@@ -3921,12 +3911,12 @@
         <v>120.31858200000001</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C37" s="11">
         <v>700.00000000000011</v>
@@ -3938,12 +3928,12 @@
         <v>119.021483</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E38">
         <v>33.967750000000002</v>
@@ -3952,12 +3942,12 @@
         <v>118.281575</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E39">
         <v>34.212665999999999</v>
@@ -3966,12 +3956,12 @@
         <v>117.29057400000001</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D40" s="11">
         <v>400</v>
@@ -3983,12 +3973,12 @@
         <v>113.58255699999999</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C41" s="11">
         <v>29000</v>
@@ -4003,12 +3993,12 @@
         <v>114.06455200000001</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E42">
         <v>23.116358999999999</v>
@@ -4017,12 +4007,12 @@
         <v>114.42355999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E43">
         <v>22.522314000000001</v>
@@ -4031,12 +4021,12 @@
         <v>113.39942000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E44">
         <v>22.584603999999999</v>
@@ -4045,12 +4035,12 @@
         <v>113.08855200000001</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E45">
         <v>23.027308000000001</v>
@@ -4059,12 +4049,12 @@
         <v>113.75841800000001</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E46">
         <v>23.135335999999999</v>
@@ -4073,12 +4063,12 @@
         <v>113.271429</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E47">
         <v>23.052889</v>
@@ -4087,12 +4077,12 @@
         <v>112.47148799999999</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E48">
         <v>23.027759</v>
@@ -4101,12 +4091,12 @@
         <v>113.12850899999999</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E49">
         <v>23.359090999999999</v>
@@ -4115,12 +4105,12 @@
         <v>116.688529</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C50" s="11">
         <v>320</v>
@@ -4132,12 +4122,12 @@
         <v>110.365554</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E51">
         <v>24.294177000000001</v>
@@ -4146,12 +4136,12 @@
         <v>116.129541</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E52">
         <v>21.669063999999999</v>
@@ -4160,12 +4150,12 @@
         <v>110.931541</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E53">
         <v>23.749684999999999</v>
@@ -4174,12 +4164,12 @@
         <v>114.707442</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D54" s="11">
         <v>600</v>
@@ -4191,12 +4181,12 @@
         <v>115.38154900000001</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C55" s="11">
         <v>100</v>
@@ -4208,12 +4198,12 @@
         <v>111.98848700000001</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E56">
         <v>23.688229</v>
@@ -4222,12 +4212,12 @@
         <v>113.062465</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E57">
         <v>23.662623</v>
@@ -4236,12 +4226,12 @@
         <v>116.62946599999999</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E58">
         <v>23.555741000000001</v>
@@ -4250,12 +4240,12 @@
         <v>116.37851499999999</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E59">
         <v>24.81588</v>
@@ -4264,12 +4254,12 @@
         <v>113.60352399999999</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E60">
         <v>22.920911</v>
@@ -4278,12 +4268,12 @@
         <v>112.051512</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E61">
         <v>34.753439999999998</v>
@@ -4292,12 +4282,12 @@
         <v>113.631416</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E62">
         <v>33.77205</v>
@@ -4306,12 +4296,12 @@
         <v>113.199529</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E63">
         <v>34.778326</v>
@@ -4320,12 +4310,12 @@
         <v>111.20653</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E64">
         <v>34.624263999999997</v>
@@ -4334,12 +4324,12 @@
         <v>112.459424</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E65">
         <v>36.105939999999997</v>
@@ -4348,12 +4338,12 @@
         <v>114.399503</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E66">
         <v>34.802885000000003</v>
@@ -4362,12 +4352,12 @@
         <v>114.314595</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C67" s="11">
         <v>325.99999999999994</v>
@@ -4379,12 +4369,12 @@
         <v>113.248549</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E68">
         <v>32.996561</v>
@@ -4393,12 +4383,12 @@
         <v>112.534504</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E69">
         <v>32.153013999999999</v>
@@ -4407,12 +4397,12 @@
         <v>114.09748399999999</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E70">
         <v>34.041432999999998</v>
@@ -4421,12 +4411,12 @@
         <v>113.85847200000001</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E71">
         <v>33.631829000000003</v>
@@ -4435,12 +4425,12 @@
         <v>114.703481</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C72" s="11">
         <v>300</v>
@@ -4452,12 +4442,12 @@
         <v>114.303591</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E73">
         <v>35.767592999999998</v>
@@ -4466,12 +4456,12 @@
         <v>115.03559300000001</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E74">
         <v>35.309640000000002</v>
@@ -4480,12 +4470,12 @@
         <v>113.93359700000001</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E75">
         <v>33.587710000000001</v>
@@ -4494,12 +4484,12 @@
         <v>114.023419</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>74</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E76">
         <v>34.420202000000003</v>
@@ -4508,12 +4498,12 @@
         <v>115.662449</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>75</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E77">
         <v>33.017842000000002</v>
@@ -4522,12 +4512,12 @@
         <v>114.02846700000001</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E78">
         <v>40.848421999999999</v>
@@ -4536,12 +4526,12 @@
         <v>111.755512</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D79" s="11">
         <v>308</v>
@@ -4553,12 +4543,12 @@
         <v>118.895522</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C80" s="11">
         <v>460</v>
@@ -4570,12 +4560,12 @@
         <v>109.84654</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E81">
         <v>39.614483</v>
@@ -4584,12 +4574,12 @@
         <v>109.787441</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E82">
         <v>41.000749999999996</v>
@@ -4598,12 +4588,12 @@
         <v>113.13946799999999</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E83">
         <v>43.939424000000002</v>
@@ -4612,12 +4602,12 @@
         <v>116.054388</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>82</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E84">
         <v>39.662005999999998</v>
@@ -4626,12 +4616,12 @@
         <v>106.80039499999999</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E85">
         <v>49.218446</v>
@@ -4640,12 +4630,12 @@
         <v>119.772367</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>84</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E86">
         <v>40.749358000000001</v>
@@ -4654,12 +4644,12 @@
         <v>107.3944</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E87">
         <v>43.657980000000002</v>
@@ -4668,12 +4658,12 @@
         <v>122.250523</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>86</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E88">
         <v>46.088464000000002</v>
@@ -4682,12 +4672,12 @@
         <v>122.04436099999999</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E89">
         <v>38.858277000000001</v>
@@ -4696,12 +4686,12 @@
         <v>105.735373</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E90">
         <v>37.876989999999999</v>
@@ -4710,12 +4700,12 @@
         <v>112.55639600000001</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E91">
         <v>40.082470000000001</v>
@@ -4724,12 +4714,12 @@
         <v>113.30643600000001</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E92">
         <v>36.201267000000001</v>
@@ -4738,12 +4728,12 @@
         <v>113.122562</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E93">
         <v>36.093743000000003</v>
@@ -4752,12 +4742,12 @@
         <v>111.525527</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E94">
         <v>37.862361999999997</v>
@@ -4766,12 +4756,12 @@
         <v>113.587615</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>93</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E95">
         <v>35.496284000000003</v>
@@ -4780,12 +4770,12 @@
         <v>112.858577</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>94</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E96">
         <v>39.337110000000003</v>
@@ -4794,12 +4784,12 @@
         <v>112.439374</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>95</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E97">
         <v>37.692841000000001</v>
@@ -4808,12 +4798,12 @@
         <v>112.759593</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>96</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E98">
         <v>35.032705999999997</v>
@@ -4822,12 +4812,12 @@
         <v>111.013385</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>97</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E99">
         <v>38.422381999999999</v>
@@ -4836,12 +4826,12 @@
         <v>112.74062000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>98</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C100" s="11">
         <v>100</v>
@@ -4853,12 +4843,12 @@
         <v>111.15044899999999</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E101">
         <v>36.656554</v>
@@ -4867,12 +4857,12 @@
         <v>117.12639900000001</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E102">
         <v>36.072226999999998</v>
@@ -4881,12 +4871,12 @@
         <v>120.389458</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E103">
         <v>36.819085000000001</v>
@@ -4895,12 +4885,12 @@
         <v>118.061455</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E104">
         <v>34.815994000000003</v>
@@ -4909,12 +4899,12 @@
         <v>117.330539</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E105">
         <v>37.470039999999997</v>
@@ -4923,12 +4913,12 @@
         <v>121.45441700000001</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E106">
         <v>36.712649999999996</v>
@@ -4937,12 +4927,12 @@
         <v>119.168374</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E107">
         <v>35.420177000000002</v>
@@ -4951,12 +4941,12 @@
         <v>116.593614</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C108" s="11">
         <v>100</v>
@@ -4968,12 +4958,12 @@
         <v>117.094492</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C109" s="11">
         <v>100</v>
@@ -4985,12 +4975,12 @@
         <v>119.533418</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E110">
         <v>37.454847999999998</v>
@@ -4999,12 +4989,12 @@
         <v>118.588463</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C111" s="11">
         <v>220</v>
@@ -5016,12 +5006,12 @@
         <v>115.99158799999999</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E112">
         <v>37.388196999999998</v>
@@ -5030,12 +5020,12 @@
         <v>117.9774</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E113">
         <v>35.239407999999997</v>
@@ -5044,12 +5034,12 @@
         <v>115.487549</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E114">
         <v>36.219470999999999</v>
@@ -5058,12 +5048,12 @@
         <v>117.68354600000001</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E115">
         <v>37.516430999999997</v>
@@ -5072,12 +5062,12 @@
         <v>122.127545</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E116">
         <v>37.441307999999999</v>
@@ -5086,12 +5076,12 @@
         <v>116.36555300000001</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E117">
         <v>35.110672000000001</v>
@@ -5100,12 +5090,12 @@
         <v>118.36353699999999</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D118" s="11">
         <v>8000</v>
@@ -5117,12 +5107,12 @@
         <v>117.233441</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E119">
         <v>31.358536999999998</v>
@@ -5131,12 +5121,12 @@
         <v>118.439435</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E120">
         <v>31.676265000000001</v>
@@ -5145,12 +5135,12 @@
         <v>118.513581</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>119</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C121" s="11">
         <v>150</v>
@@ -5162,12 +5152,12 @@
         <v>115.78446599999999</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>120</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E122">
         <v>31.741451999999999</v>
@@ -5176,12 +5166,12 @@
         <v>116.52641199999999</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>121</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E123">
         <v>32.261271000000001</v>
@@ -5190,12 +5180,12 @@
         <v>118.33940800000001</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>122</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E124">
         <v>30.670884999999998</v>
@@ -5204,12 +5194,12 @@
         <v>117.498424</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>123</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E125">
         <v>30.946601000000001</v>
@@ -5218,12 +5208,12 @@
         <v>118.76553699999999</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>124</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E126">
         <v>32.896062000000001</v>
@@ -5232,12 +5222,12 @@
         <v>115.82043400000001</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>125</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C127" s="11">
         <v>60</v>
@@ -5249,12 +5239,12 @@
         <v>116.97054300000001</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>126</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E128">
         <v>32.921523000000001</v>
@@ -5263,12 +5253,12 @@
         <v>117.39551400000001</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>127</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E129">
         <v>32.631847</v>
@@ -5277,12 +5267,12 @@
         <v>117.00638600000001</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>128</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E130">
         <v>33.961657000000002</v>
@@ -5291,12 +5281,12 @@
         <v>116.804536</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>129</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C131" s="11">
         <v>79.000000000000014</v>
@@ -5308,12 +5298,12 @@
         <v>117.81848100000001</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>130</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C132" s="11">
         <v>86</v>
@@ -5325,12 +5315,12 @@
         <v>117.063608</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>131</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E133">
         <v>30.130389999999998</v>
@@ -5339,12 +5329,12 @@
         <v>118.16808899999999</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>132</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E134">
         <v>28.689454999999999</v>
@@ -5353,12 +5343,12 @@
         <v>115.86458500000001</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>133</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E135">
         <v>29.71134</v>
@@ -5367,12 +5357,12 @@
         <v>116.007533</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>134</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C136" s="11">
         <v>26</v>
@@ -5384,12 +5374,12 @@
         <v>114.92353900000001</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>135</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E137">
         <v>28.265787</v>
@@ -5398,12 +5388,12 @@
         <v>117.07557300000001</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>136</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E138">
         <v>27.954892999999998</v>
@@ -5412,12 +5402,12 @@
         <v>116.364537</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>137</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E139">
         <v>25.835176000000001</v>
@@ -5426,12 +5416,12 @@
         <v>114.94050799999999</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>138</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E140">
         <v>28.460626000000001</v>
@@ -5440,12 +5430,12 @@
         <v>117.94946299999999</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>139</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E141">
         <v>27.628392999999999</v>
@@ -5454,12 +5444,12 @@
         <v>113.86149899999999</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>140</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D142" s="11">
         <v>222</v>
@@ -5471,12 +5461,12 @@
         <v>115.000514</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>141</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E143">
         <v>27.820855999999999</v>
@@ -5485,12 +5475,12 @@
         <v>114.42355999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>142</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E144">
         <v>29.274248</v>
@@ -5499,12 +5489,12 @@
         <v>117.184574</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>143</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E145">
         <v>26.080428999999999</v>
@@ -5513,12 +5503,12 @@
         <v>119.30347</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>144</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E146">
         <v>24.485408</v>
@@ -5527,12 +5517,12 @@
         <v>118.096435</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>145</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E147">
         <v>24.879951999999999</v>
@@ -5541,12 +5531,12 @@
         <v>118.682444</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>146</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E148">
         <v>25.081219999999998</v>
@@ -5555,12 +5545,12 @@
         <v>117.023445</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>147</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C149" s="11">
         <v>98</v>
@@ -5572,12 +5562,12 @@
         <v>119.55450999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>148</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E150">
         <v>25.459865000000001</v>
@@ -5586,12 +5576,12 @@
         <v>119.014521</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>149</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E151">
         <v>24.518930000000001</v>
@@ -5600,12 +5590,12 @@
         <v>117.65357899999999</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>150</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E152">
         <v>26.269736000000002</v>
@@ -5614,12 +5604,12 @@
         <v>117.645521</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>151</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E153">
         <v>26.647772</v>
@@ -5628,12 +5618,12 @@
         <v>118.18437</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>152</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E154">
         <v>30.598466999999999</v>
@@ -5642,12 +5632,12 @@
         <v>114.31158600000001</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>153</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E155">
         <v>30.697445999999999</v>
@@ -5656,12 +5646,12 @@
         <v>111.292552</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>154</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E156">
         <v>30.340843</v>
@@ -5670,12 +5660,12 @@
         <v>112.245519</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="s">
         <v>155</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D157" s="11">
         <v>231.99999999999997</v>
@@ -5687,12 +5677,12 @@
         <v>115.045529</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
         <v>156</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E158">
         <v>30.396571000000002</v>
@@ -5701,12 +5691,12 @@
         <v>114.901611</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
         <v>157</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E159">
         <v>30.930689999999998</v>
@@ -5715,12 +5705,12 @@
         <v>113.922512</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
         <v>158</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E160">
         <v>30.459358999999999</v>
@@ -5729,12 +5719,12 @@
         <v>114.878489</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E161">
         <v>29.847055999999998</v>
@@ -5743,12 +5733,12 @@
         <v>114.328519</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
         <v>160</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E162">
         <v>32.635063000000002</v>
@@ -5757,12 +5747,12 @@
         <v>110.804529</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
         <v>161</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E163">
         <v>32.014797000000002</v>
@@ -5771,12 +5761,12 @@
         <v>112.128533</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
         <v>162</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E164">
         <v>31.041733000000001</v>
@@ -5785,12 +5775,12 @@
         <v>112.206389</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
         <v>163</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E165">
         <v>31.696515999999999</v>
@@ -5799,12 +5789,12 @@
         <v>113.389448</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
         <v>164</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E166">
         <v>30.277939</v>
@@ -5813,12 +5803,12 @@
         <v>109.49459299999999</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>165</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D167" s="11">
         <v>1608.9999999999998</v>
@@ -5830,12 +5820,12 @@
         <v>112.94547</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>166</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E168">
         <v>27.833568</v>
@@ -5844,12 +5834,12 @@
         <v>113.140474</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>167</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E169">
         <v>27.835702999999999</v>
@@ -5858,12 +5848,12 @@
         <v>112.950464</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>168</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E170">
         <v>29.037749999999999</v>
@@ -5872,12 +5862,12 @@
         <v>111.705449</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>169</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E171">
         <v>29.122817000000001</v>
@@ -5886,12 +5876,12 @@
         <v>110.48553200000001</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>170</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E172">
         <v>29.363177</v>
@@ -5900,12 +5890,12 @@
         <v>113.135488</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
         <v>171</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E173">
         <v>26.899574999999999</v>
@@ -5914,12 +5904,12 @@
         <v>112.57844900000001</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="s">
         <v>172</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D174" s="11">
         <v>472</v>
@@ -5931,12 +5921,12 @@
         <v>111.47443199999999</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
         <v>173</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D175" s="11">
         <v>400</v>
@@ -5948,12 +5938,12 @@
         <v>112.36151700000001</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
         <v>174</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E176">
         <v>25.776682999999998</v>
@@ -5962,12 +5952,12 @@
         <v>113.021458</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="8" t="s">
         <v>175</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E177">
         <v>27.703208</v>
@@ -5976,12 +5966,12 @@
         <v>112.001503</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="8" t="s">
         <v>176</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E178">
         <v>28.317367999999998</v>
@@ -5990,12 +5980,12 @@
         <v>109.74558</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="8" t="s">
         <v>177</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E179">
         <v>26.425864000000001</v>
@@ -6004,12 +5994,12 @@
         <v>111.619454</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="s">
         <v>178</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E180">
         <v>27.575161000000001</v>
@@ -6018,12 +6008,12 @@
         <v>110.00851400000001</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>179</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E181">
         <v>22.822607000000001</v>
@@ -6032,12 +6022,12 @@
         <v>108.373454</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>180</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E182">
         <v>25.242887</v>
@@ -6046,12 +6036,12 @@
         <v>110.20354500000001</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
         <v>181</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D183" s="11">
         <v>160</v>
@@ -6063,12 +6053,12 @@
         <v>109.126531</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E184">
         <v>24.331961</v>
@@ -6077,12 +6067,12 @@
         <v>109.434425</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="8" t="s">
         <v>183</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E185">
         <v>22.659831000000001</v>
@@ -6091,12 +6081,12 @@
         <v>110.188453</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="8" t="s">
         <v>184</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E186">
         <v>23.908187000000002</v>
@@ -6105,12 +6095,12 @@
         <v>106.624588</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="8" t="s">
         <v>185</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E187">
         <v>24.40945</v>
@@ -6119,12 +6109,12 @@
         <v>111.57352400000001</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="8" t="s">
         <v>186</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E188">
         <v>24.698912</v>
@@ -6133,12 +6123,12 @@
         <v>108.091503</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="8" t="s">
         <v>187</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E189">
         <v>23.756546</v>
@@ -6147,12 +6137,12 @@
         <v>109.22745500000001</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="8" t="s">
         <v>188</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E190">
         <v>22.383116999999999</v>
@@ -6161,12 +6151,12 @@
         <v>107.37152</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="8" t="s">
         <v>189</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E191">
         <v>23.482745999999999</v>
@@ -6175,12 +6165,12 @@
         <v>111.285518</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="8" t="s">
         <v>190</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E192">
         <v>21.693004999999999</v>
@@ -6189,12 +6179,12 @@
         <v>108.36042</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="8" t="s">
         <v>191</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E193">
         <v>21.986592999999999</v>
@@ -6203,12 +6193,12 @@
         <v>108.66058</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="8" t="s">
         <v>192</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E194">
         <v>23.117448</v>
@@ -6217,12 +6207,12 @@
         <v>109.60551599999999</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
         <v>193</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E195">
         <v>20.044049999999999</v>
@@ -6231,12 +6221,12 @@
         <v>110.325526</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>194</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E196">
         <v>18.258735999999999</v>
@@ -6245,12 +6235,12 @@
         <v>109.51855999999999</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
         <v>195</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E197">
         <v>45.808824000000001</v>
@@ -6259,12 +6249,12 @@
         <v>126.541611</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
         <v>196</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D198" s="11">
         <v>864</v>
@@ -6276,12 +6266,12 @@
         <v>123.92456900000001</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
         <v>197</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E199">
         <v>46.593634999999999</v>
@@ -6290,12 +6280,12 @@
         <v>125.108661</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E200">
         <v>44.556246999999999</v>
@@ -6304,12 +6294,12 @@
         <v>129.639544</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="8" t="s">
         <v>199</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E201">
         <v>45.300874</v>
@@ -6318,12 +6308,12 @@
         <v>130.97561999999999</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="8" t="s">
         <v>200</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E202">
         <v>47.356056000000002</v>
@@ -6332,12 +6322,12 @@
         <v>130.30443299999999</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="8" t="s">
         <v>201</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E203">
         <v>46.653185000000001</v>
@@ -6346,12 +6336,12 @@
         <v>131.16534200000001</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="8" t="s">
         <v>202</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E204">
         <v>47.733319000000002</v>
@@ -6360,12 +6350,12 @@
         <v>128.847544</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="8" t="s">
         <v>203</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C205" s="11">
         <v>35</v>
@@ -6377,12 +6367,12 @@
         <v>130.327358</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="8" t="s">
         <v>204</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E206">
         <v>45.776299999999999</v>
@@ -6391,12 +6381,12 @@
         <v>131.01154399999999</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="8" t="s">
         <v>205</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E207">
         <v>50.251272999999998</v>
@@ -6405,12 +6395,12 @@
         <v>127.535487</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="8" t="s">
         <v>206</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E208">
         <v>46.660032000000001</v>
@@ -6419,12 +6409,12 @@
         <v>126.975358</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A209" s="8" t="s">
         <v>207</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E209">
         <v>50.420026999999997</v>
@@ -6433,7 +6423,7 @@
         <v>124.15292700000001</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
         <v>208</v>
       </c>
@@ -6447,7 +6437,7 @@
         <v>125.330606</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
         <v>209</v>
       </c>
@@ -6461,7 +6451,7 @@
         <v>126.555634</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="8" t="s">
         <v>210</v>
       </c>
@@ -6475,7 +6465,7 @@
         <v>124.356483</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="8" t="s">
         <v>211</v>
       </c>
@@ -6489,7 +6479,7 @@
         <v>125.150423</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="8" t="s">
         <v>212</v>
       </c>
@@ -6506,7 +6496,7 @@
         <v>125.94661000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="8" t="s">
         <v>213</v>
       </c>
@@ -6520,7 +6510,7 @@
         <v>126.42962799999999</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="8" t="s">
         <v>214</v>
       </c>
@@ -6534,7 +6524,7 @@
         <v>124.83148</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="8" t="s">
         <v>215</v>
       </c>
@@ -6548,7 +6538,7 @@
         <v>122.84558699999999</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="8" t="s">
         <v>216</v>
       </c>
@@ -6562,12 +6552,12 @@
         <v>129.477372</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
         <v>217</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E219">
         <v>41.720914999999998</v>
@@ -6576,12 +6566,12 @@
         <v>123.455986</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
         <v>218</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E220">
         <v>38.918953000000002</v>
@@ -6590,12 +6580,12 @@
         <v>121.621628</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
         <v>219</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C221" s="11">
         <v>400</v>
@@ -6607,12 +6597,12 @@
         <v>123.00137100000001</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
         <v>220</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E222">
         <v>41.885967999999998</v>
@@ -6621,12 +6611,12 @@
         <v>123.96437299999999</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
         <v>221</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E223">
         <v>41.492915000000004</v>
@@ -6635,12 +6625,12 @@
         <v>123.69251</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
         <v>222</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C224" s="11">
         <v>210</v>
@@ -6652,12 +6642,12 @@
         <v>121.132599</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
         <v>223</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E225">
         <v>40.006408</v>
@@ -6666,12 +6656,12 @@
         <v>124.36154999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>224</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C226" s="11">
         <v>125</v>
@@ -6683,12 +6673,12 @@
         <v>122.241575</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="8" t="s">
         <v>225</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E227">
         <v>42.028022</v>
@@ -6697,12 +6687,12 @@
         <v>121.676407</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
         <v>226</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E228">
         <v>41.125874000000003</v>
@@ -6711,12 +6701,12 @@
         <v>122.07749099999999</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
         <v>227</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E229">
         <v>40.717362999999999</v>
@@ -6725,12 +6715,12 @@
         <v>120.84339900000001</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="8" t="s">
         <v>228</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E230">
         <v>41.274161999999997</v>
@@ -6739,12 +6729,12 @@
         <v>123.24336599999999</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="8" t="s">
         <v>229</v>
       </c>
       <c r="B231" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C231" s="11">
         <v>210</v>
@@ -6756,12 +6746,12 @@
         <v>123.732367</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="8" t="s">
         <v>230</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E232">
         <v>41.579822</v>
@@ -6770,12 +6760,12 @@
         <v>120.45749600000001</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
         <v>231</v>
       </c>
       <c r="B233" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E233">
         <v>43.830762999999997</v>
@@ -6784,12 +6774,12 @@
         <v>87.624437999999998</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
         <v>232</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E234">
         <v>45.585673999999997</v>
@@ -6798,12 +6788,12 @@
         <v>84.895898000000003</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A235" s="8" t="s">
         <v>233</v>
       </c>
       <c r="B235" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E235">
         <v>42.946289</v>
@@ -6812,12 +6802,12 @@
         <v>89.180436999999998</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
         <v>234</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E236">
         <v>41.732371999999998</v>
@@ -6826,12 +6816,12 @@
         <v>86.181489999999997</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="8" t="s">
         <v>235</v>
       </c>
       <c r="B237" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E237">
         <v>44.012397</v>
@@ -6840,12 +6830,12 @@
         <v>87.286033000000003</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="8" t="s">
         <v>236</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E238">
         <v>43.922722</v>
@@ -6854,12 +6844,12 @@
         <v>81.330541999999994</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="8" t="s">
         <v>237</v>
       </c>
       <c r="B239" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E239">
         <v>42.868664000000003</v>
@@ -6868,12 +6858,12 @@
         <v>93.523139</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A240" s="8" t="s">
         <v>238</v>
       </c>
       <c r="B240" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E240">
         <v>44.912196000000002</v>
@@ -6882,12 +6872,12 @@
         <v>82.072909999999993</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A241" s="8" t="s">
         <v>239</v>
       </c>
       <c r="B241" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E241">
         <v>41.175029000000002</v>
@@ -6896,12 +6886,12 @@
         <v>80.266938999999994</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A242" s="8" t="s">
         <v>240</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E242">
         <v>39.720471000000003</v>
@@ -6910,12 +6900,12 @@
         <v>76.174312999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="8" t="s">
         <v>241</v>
       </c>
       <c r="B243" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E243">
         <v>39.476098</v>
@@ -6924,12 +6914,12 @@
         <v>75.996395000000007</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="8" t="s">
         <v>242</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E244">
         <v>37.120446999999999</v>
@@ -6938,12 +6928,12 @@
         <v>79.928511</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="8" t="s">
         <v>243</v>
       </c>
       <c r="B245" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E245">
         <v>46.750946999999996</v>
@@ -6952,12 +6942,12 @@
         <v>82.987233000000003</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A246" s="8" t="s">
         <v>244</v>
       </c>
       <c r="B246" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E246">
         <v>47.358299000000002</v>
@@ -6966,12 +6956,12 @@
         <v>87.835809999999995</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="8" t="s">
         <v>245</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E247">
         <v>44.172445000000003</v>
@@ -6980,12 +6970,12 @@
         <v>87.549932999999996</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="8" t="s">
         <v>246</v>
       </c>
       <c r="B248" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E248">
         <v>44.311974999999997</v>
@@ -6994,12 +6984,12 @@
         <v>86.086889999999997</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
         <v>247</v>
       </c>
       <c r="B249" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C249" s="11">
         <v>3588</v>
@@ -7011,12 +7001,12 @@
         <v>103.840524</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
         <v>248</v>
       </c>
       <c r="B250" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E250">
         <v>38.525821000000001</v>
@@ -7025,12 +7015,12 @@
         <v>102.194603</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
         <v>249</v>
       </c>
       <c r="B251" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E251">
         <v>39.777960999999998</v>
@@ -7039,12 +7029,12 @@
         <v>98.296199999999999</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="8" t="s">
         <v>250</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E252">
         <v>39.738467999999997</v>
@@ -7053,12 +7043,12 @@
         <v>98.500681</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="8" t="s">
         <v>251</v>
       </c>
       <c r="B253" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E253">
         <v>35.607562000000001</v>
@@ -7067,12 +7057,12 @@
         <v>103.21639</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="8" t="s">
         <v>252</v>
       </c>
       <c r="B254" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E254">
         <v>29.652888000000001</v>
@@ -7081,12 +7071,12 @@
         <v>91.140507999999997</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="8" t="s">
         <v>253</v>
       </c>
       <c r="B255" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E255">
         <v>36.550826999999998</v>
@@ -7095,12 +7085,12 @@
         <v>104.144447</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="8" t="s">
         <v>254</v>
       </c>
       <c r="B256" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E256">
         <v>34.587412</v>
@@ -7109,12 +7099,12 @@
         <v>105.731421</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="8" t="s">
         <v>255</v>
       </c>
       <c r="B257" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E257">
         <v>37.934378000000002</v>
@@ -7123,12 +7113,12 @@
         <v>102.64455599999999</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="8" t="s">
         <v>256</v>
       </c>
       <c r="B258" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E258">
         <v>35.549232000000003</v>
@@ -7137,12 +7127,12 @@
         <v>106.67144399999999</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="8" t="s">
         <v>257</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E259">
         <v>38.932065000000001</v>
@@ -7151,12 +7141,12 @@
         <v>100.45640899999999</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="8" t="s">
         <v>258</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E260">
         <v>35.715215999999998</v>
@@ -7165,12 +7155,12 @@
         <v>107.649384</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="8" t="s">
         <v>259</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E261">
         <v>35.586834000000003</v>
@@ -7179,12 +7169,12 @@
         <v>104.63241600000001</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="8" t="s">
         <v>260</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E262">
         <v>33.406621000000001</v>
@@ -7193,12 +7183,12 @@
         <v>104.928578</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
         <v>261</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E263">
         <v>36.623384999999999</v>
@@ -7207,12 +7197,12 @@
         <v>101.784446</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="8" t="s">
         <v>262</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E264">
         <v>36.634287</v>
@@ -7221,12 +7211,12 @@
         <v>101.781853</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="8" t="s">
         <v>263</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E265">
         <v>36.954070999999999</v>
@@ -7235,12 +7225,12 @@
         <v>100.90973700000001</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="8" t="s">
         <v>264</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E266">
         <v>35.531962</v>
@@ -7249,12 +7239,12 @@
         <v>102.026543</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="8" t="s">
         <v>265</v>
       </c>
       <c r="B267" s="10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E267">
         <v>36.283273000000001</v>
@@ -7263,12 +7253,12 @@
         <v>100.61898600000001</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="8" t="s">
         <v>266</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E268">
         <v>34.477193</v>
@@ -7277,12 +7267,12 @@
         <v>100.25159600000001</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="8" t="s">
         <v>267</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E269">
         <v>36.615774000000002</v>
@@ -7291,12 +7281,12 @@
         <v>101.78344</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="8" t="s">
         <v>268</v>
       </c>
       <c r="B270" s="10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E270">
         <v>38.742356000000001</v>
@@ -7305,12 +7295,12 @@
         <v>93.340123000000006</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
         <v>269</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E271">
         <v>38.492462000000003</v>
@@ -7319,12 +7309,12 @@
         <v>106.238496</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
         <v>270</v>
       </c>
       <c r="B272" s="10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E272">
         <v>38.989682999999999</v>
@@ -7333,12 +7323,12 @@
         <v>106.390597</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="8" t="s">
         <v>271</v>
       </c>
       <c r="B273" s="10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E273">
         <v>36.021619000000001</v>
@@ -7347,12 +7337,12 @@
         <v>106.248575</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="8" t="s">
         <v>272</v>
       </c>
       <c r="B274" s="10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E274">
         <v>38.003712999999998</v>
@@ -7361,12 +7351,12 @@
         <v>106.205367</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="8" t="s">
         <v>273</v>
       </c>
       <c r="B275" s="10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E275">
         <v>37.505699999999997</v>
@@ -7375,12 +7365,12 @@
         <v>105.203568</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
         <v>274</v>
       </c>
       <c r="B276" s="10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E276">
         <v>34.347268999999997</v>
@@ -7389,12 +7379,12 @@
         <v>108.946465</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
         <v>275</v>
       </c>
       <c r="B277" s="10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E277">
         <v>34.335476</v>
@@ -7403,12 +7393,12 @@
         <v>108.71542100000001</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
         <v>276</v>
       </c>
       <c r="B278" s="10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E278">
         <v>34.902638000000003</v>
@@ -7417,12 +7407,12 @@
         <v>108.952403</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
         <v>277</v>
       </c>
       <c r="B279" s="10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D279" s="11">
         <v>207</v>
@@ -7434,12 +7424,12 @@
         <v>109.496579</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
         <v>278</v>
       </c>
       <c r="B280" s="10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E280">
         <v>34.368915000000001</v>
@@ -7448,12 +7438,12 @@
         <v>107.24457200000001</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
         <v>279</v>
       </c>
       <c r="B281" s="10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E281">
         <v>34.505715000000002</v>
@@ -7462,12 +7452,12 @@
         <v>109.516593</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="8" t="s">
         <v>280</v>
       </c>
       <c r="B282" s="10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E282">
         <v>33.073799999999999</v>
@@ -7476,12 +7466,12 @@
         <v>107.029427</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="8" t="s">
         <v>281</v>
       </c>
       <c r="B283" s="10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E283">
         <v>38.290882000000003</v>
@@ -7490,12 +7480,12 @@
         <v>109.741618</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="8" t="s">
         <v>282</v>
       </c>
       <c r="B284" s="10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E284">
         <v>32.690513000000003</v>
@@ -7504,12 +7494,12 @@
         <v>109.03560400000001</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="8" t="s">
         <v>283</v>
       </c>
       <c r="B285" s="10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E285">
         <v>33.878633000000001</v>
@@ -7518,12 +7508,12 @@
         <v>109.924415</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
         <v>284</v>
       </c>
       <c r="B286" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E286">
         <v>30.655823000000002</v>
@@ -7532,12 +7522,12 @@
         <v>104.08153</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
         <v>285</v>
       </c>
       <c r="B287" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E287">
         <v>31.473662999999998</v>
@@ -7546,12 +7536,12 @@
         <v>104.68556</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
         <v>286</v>
       </c>
       <c r="B288" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E288">
         <v>28.758006999999999</v>
@@ -7560,12 +7550,12 @@
         <v>104.64940300000001</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="s">
         <v>287</v>
       </c>
       <c r="B289" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E289">
         <v>26.588034</v>
@@ -7574,12 +7564,12 @@
         <v>101.725544</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
         <v>288</v>
       </c>
       <c r="B290" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E290">
         <v>28.877668</v>
@@ -7588,12 +7578,12 @@
         <v>105.448526</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="4" t="s">
         <v>289</v>
       </c>
       <c r="B291" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E291">
         <v>29.345585</v>
@@ -7602,12 +7592,12 @@
         <v>104.78444500000001</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
         <v>290</v>
       </c>
       <c r="B292" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E292">
         <v>31.133116000000001</v>
@@ -7616,12 +7606,12 @@
         <v>104.404417</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="8" t="s">
         <v>291</v>
       </c>
       <c r="B293" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E293">
         <v>30.539097000000002</v>
@@ -7630,12 +7620,12 @@
         <v>105.599424</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="8" t="s">
         <v>292</v>
       </c>
       <c r="B294" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E294">
         <v>29.585885999999999</v>
@@ -7644,12 +7634,12 @@
         <v>105.06459099999999</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="8" t="s">
         <v>293</v>
       </c>
       <c r="B295" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E295">
         <v>29.557939999999999</v>
@@ -7658,12 +7648,12 @@
         <v>103.77254000000001</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="8" t="s">
         <v>294</v>
       </c>
       <c r="B296" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E296">
         <v>30.082526999999999</v>
@@ -7672,12 +7662,12 @@
         <v>103.856567</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="8" t="s">
         <v>295</v>
       </c>
       <c r="B297" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E297">
         <v>30.461746999999999</v>
@@ -7686,12 +7676,12 @@
         <v>106.639554</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="8" t="s">
         <v>296</v>
       </c>
       <c r="B298" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E298">
         <v>31.214307000000002</v>
@@ -7700,12 +7690,12 @@
         <v>107.474592</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="8" t="s">
         <v>297</v>
       </c>
       <c r="B299" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E299">
         <v>30.134955999999999</v>
@@ -7714,12 +7704,12 @@
         <v>104.63443700000001</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="8" t="s">
         <v>298</v>
       </c>
       <c r="B300" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E300">
         <v>32.441617000000001</v>
@@ -7728,12 +7718,12 @@
         <v>105.850419</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
         <v>299</v>
       </c>
       <c r="B301" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E301">
         <v>30.843782999999998</v>
@@ -7742,12 +7732,12 @@
         <v>106.117504</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="8" t="s">
         <v>300</v>
       </c>
       <c r="B302" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E302">
         <v>31.872889000000001</v>
@@ -7756,12 +7746,12 @@
         <v>106.751582</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="8" t="s">
         <v>301</v>
       </c>
       <c r="B303" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E303">
         <v>31.905512000000002</v>
@@ -7770,12 +7760,12 @@
         <v>102.231416</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="8" t="s">
         <v>302</v>
       </c>
       <c r="B304" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E304">
         <v>30.055278000000001</v>
@@ -7784,12 +7774,12 @@
         <v>101.96854500000001</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="8" t="s">
         <v>303</v>
       </c>
       <c r="B305" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E305">
         <v>27.887751999999999</v>
@@ -7798,12 +7788,12 @@
         <v>102.27350199999999</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="8" t="s">
         <v>304</v>
       </c>
       <c r="B306" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E306">
         <v>30.016791999999999</v>
@@ -7812,7 +7802,7 @@
         <v>103.049539</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="9" t="s">
         <v>305</v>
       </c>
@@ -7829,12 +7819,12 @@
         <v>106.558437</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="4" t="s">
         <v>306</v>
       </c>
       <c r="B308" s="10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C308" s="11">
         <v>261</v>
@@ -7846,12 +7836,12 @@
         <v>106.63658</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="8" t="s">
         <v>307</v>
       </c>
       <c r="B309" s="10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E309">
         <v>26.259253000000001</v>
@@ -7860,12 +7850,12 @@
         <v>105.95441599999999</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="8" t="s">
         <v>308</v>
       </c>
       <c r="B310" s="10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E310">
         <v>27.696773</v>
@@ -7874,12 +7864,12 @@
         <v>109.18743600000001</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B311" s="10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E311">
         <v>25.093968</v>
@@ -7888,12 +7878,12 @@
         <v>104.91249000000001</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B312" s="10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E312">
         <v>26.589704000000001</v>
@@ -7902,12 +7892,12 @@
         <v>107.989447</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B313" s="10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E313">
         <v>26.260615999999999</v>
@@ -7916,12 +7906,12 @@
         <v>107.5284</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="4" t="s">
         <v>309</v>
       </c>
       <c r="B314" s="10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E314">
         <v>27.731701000000001</v>
@@ -7930,12 +7920,12 @@
         <v>106.933426</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="8" t="s">
         <v>310</v>
       </c>
       <c r="B315" s="10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E315">
         <v>26.598834</v>
@@ -7944,12 +7934,12 @@
         <v>104.837553</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="8" t="s">
         <v>311</v>
       </c>
       <c r="B316" s="10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E316">
         <v>27.304095</v>
@@ -7958,12 +7948,12 @@
         <v>105.31158000000001</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="4" t="s">
         <v>312</v>
       </c>
       <c r="B317" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E317">
         <v>24.873998</v>
@@ -7972,12 +7962,12 @@
         <v>102.852451</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="4" t="s">
         <v>313</v>
       </c>
       <c r="B318" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E318">
         <v>25.496407000000001</v>
@@ -7986,12 +7976,12 @@
         <v>103.802436</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="8" t="s">
         <v>314</v>
       </c>
       <c r="B319" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E319">
         <v>25.139039</v>
@@ -8000,12 +7990,12 @@
         <v>99.177276000000006</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="8" t="s">
         <v>315</v>
       </c>
       <c r="B320" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E320">
         <v>26.860657</v>
@@ -8014,12 +8004,12 @@
         <v>100.232462</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="8" t="s">
         <v>316</v>
       </c>
       <c r="B321" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C321" s="11">
         <v>47.999999999999993</v>
@@ -8031,12 +8021,12 @@
         <v>100.27458300000001</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="8" t="s">
         <v>317</v>
       </c>
       <c r="B322" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E322">
         <v>22.013601000000001</v>
@@ -8045,12 +8035,12 @@
         <v>100.803443</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
         <v>318</v>
       </c>
       <c r="B323" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E323">
         <v>24.357710000000001</v>
@@ -8059,12 +8049,12 @@
         <v>102.553557</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="8" t="s">
         <v>319</v>
       </c>
       <c r="B324" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E324">
         <v>22.805626</v>
@@ -8073,12 +8063,12 @@
         <v>100.98349899999999</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="8" t="s">
         <v>320</v>
       </c>
       <c r="B325" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E325">
         <v>23.890467999999998</v>
@@ -8087,12 +8077,12 @@
         <v>100.095443</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="8" t="s">
         <v>321</v>
       </c>
       <c r="B326" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E326">
         <v>23.405995000000001</v>
@@ -8101,12 +8091,12 @@
         <v>104.222573</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="8" t="s">
         <v>322</v>
       </c>
       <c r="B327" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E327">
         <v>25.051773000000001</v>
@@ -8115,12 +8105,12 @@
         <v>101.534412</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B328" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E328">
         <v>27.825185000000001</v>
@@ -8129,12 +8119,12 @@
         <v>99.709530999999998</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="8" t="s">
         <v>324</v>
       </c>
       <c r="B329" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E329">
         <v>27.344083000000001</v>
@@ -8143,12 +8133,12 @@
         <v>103.72351</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="8" t="s">
         <v>325</v>
       </c>
       <c r="B330" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E330">
         <v>23.369996</v>
@@ -8157,12 +8147,12 @@
         <v>103.381552</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="8" t="s">
         <v>326</v>
       </c>
       <c r="B331" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E331">
         <v>24.438010999999999</v>
@@ -8171,12 +8161,12 @@
         <v>98.591356000000005</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="8" t="s">
         <v>327</v>
       </c>
       <c r="B332" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E332">
         <v>25.823708</v>
@@ -8185,12 +8175,12 @@
         <v>98.863291000000004</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="4" t="s">
         <v>328</v>
       </c>
       <c r="B333" s="10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E333">
         <v>29.650040000000001</v>
@@ -8199,12 +8189,12 @@
         <v>91.120823000000001</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="8" t="s">
         <v>329</v>
       </c>
       <c r="B334" s="10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E334">
         <v>31.149622000000001</v>
@@ -8213,12 +8203,12 @@
         <v>97.174824999999998</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="8" t="s">
         <v>330</v>
       </c>
       <c r="B335" s="10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E335">
         <v>29.243027000000001</v>
@@ -8227,12 +8217,12 @@
         <v>91.778678999999997</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A336" s="8" t="s">
         <v>331</v>
       </c>
       <c r="B336" s="10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E336">
         <v>29.255583000000001</v>
@@ -8241,12 +8231,12 @@
         <v>88.902951999999999</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="8" t="s">
         <v>332</v>
       </c>
       <c r="B337" s="10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E337">
         <v>29.673397000000001</v>
@@ -8255,12 +8245,12 @@
         <v>91.134439999999998</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="8" t="s">
         <v>333</v>
       </c>
       <c r="B338" s="10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E338">
         <v>32.506866000000002</v>
@@ -8269,12 +8259,12 @@
         <v>80.112780999999998</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="8" t="s">
         <v>334</v>
       </c>
       <c r="B339" s="10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E339">
         <v>29.661791000000001</v>
@@ -8286,45 +8276,46 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I339"/>
   <sheetViews>
-    <sheetView topLeftCell="A316" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:F339"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C1" t="s">
         <v>368</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>369</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>370</v>
-      </c>
-      <c r="D1" t="s">
-        <v>371</v>
-      </c>
-      <c r="E1" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -8347,10 +8338,10 @@
         <v>116.413387</v>
       </c>
       <c r="G2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -8373,13 +8364,13 @@
         <v>117.20952</v>
       </c>
       <c r="G3" t="s">
+        <v>373</v>
+      </c>
+      <c r="H3" t="s">
+        <v>374</v>
+      </c>
+      <c r="I3" t="s">
         <v>375</v>
-      </c>
-      <c r="H3" t="s">
-        <v>376</v>
-      </c>
-      <c r="I3" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -8402,13 +8393,13 @@
         <v>114.892574</v>
       </c>
       <c r="G4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -8431,13 +8422,13 @@
         <v>117.969396</v>
       </c>
       <c r="G5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -8460,13 +8451,13 @@
         <v>119.60853400000001</v>
       </c>
       <c r="G6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -8489,10 +8480,10 @@
         <v>116.690577</v>
       </c>
       <c r="G7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -8515,10 +8506,10 @@
         <v>116.84558</v>
       </c>
       <c r="G8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -8541,10 +8532,10 @@
         <v>118.186463</v>
       </c>
       <c r="G9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -8567,10 +8558,10 @@
         <v>114.54563</v>
       </c>
       <c r="G10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -8593,10 +8584,10 @@
         <v>115.67540200000001</v>
       </c>
       <c r="G11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -8619,10 +8610,10 @@
         <v>114.511459</v>
       </c>
       <c r="G12" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -8645,10 +8636,10 @@
         <v>115.47145999999999</v>
       </c>
       <c r="G13" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H13" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -8671,10 +8662,10 @@
         <v>114.521529</v>
       </c>
       <c r="G14" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H14" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -8697,10 +8688,10 @@
         <v>121.48054</v>
       </c>
       <c r="G15" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H15" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -8723,10 +8714,10 @@
         <v>122.21355699999999</v>
       </c>
       <c r="G16" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H16" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -8749,13 +8740,13 @@
         <v>119.929571</v>
       </c>
       <c r="G17" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H17" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I17" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -8778,10 +8769,10 @@
         <v>121.427432</v>
       </c>
       <c r="G18" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H18" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -8804,13 +8795,13 @@
         <v>120.706479</v>
       </c>
       <c r="G19" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I19" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -8833,13 +8824,13 @@
         <v>121.62857200000001</v>
       </c>
       <c r="G20" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H20" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I20" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -8862,13 +8853,13 @@
         <v>118.866597</v>
       </c>
       <c r="G21" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H21" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I21" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -8891,7 +8882,7 @@
         <v>120.763549</v>
       </c>
       <c r="G22" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -8914,13 +8905,13 @@
         <v>120.585477</v>
       </c>
       <c r="G23" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H23" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I23" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -8943,7 +8934,7 @@
         <v>119.653441</v>
       </c>
       <c r="G24" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -8966,13 +8957,13 @@
         <v>120.09451799999999</v>
       </c>
       <c r="G25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I25" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -8995,7 +8986,7 @@
         <v>120.21550999999999</v>
       </c>
       <c r="G26" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -9018,7 +9009,7 @@
         <v>120.167541</v>
       </c>
       <c r="G27" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -9041,10 +9032,10 @@
         <v>120.592412</v>
       </c>
       <c r="G28" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H28" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -9067,10 +9058,10 @@
         <v>120.901591</v>
       </c>
       <c r="G29" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H29" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -9093,10 +9084,10 @@
         <v>119.228623</v>
       </c>
       <c r="G30" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H30" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -9119,10 +9110,10 @@
         <v>118.80242200000001</v>
       </c>
       <c r="G31" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H31" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -9145,10 +9136,10 @@
         <v>119.98148399999999</v>
       </c>
       <c r="G32" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H32" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -9171,10 +9162,10 @@
         <v>119.43049000000001</v>
       </c>
       <c r="G33" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H33" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -9197,10 +9188,10 @@
         <v>119.41942299999999</v>
       </c>
       <c r="G34" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H34" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -9223,10 +9214,10 @@
         <v>119.929571</v>
       </c>
       <c r="G35" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H35" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -9249,13 +9240,13 @@
         <v>120.31858200000001</v>
       </c>
       <c r="G36" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H36" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I36" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -9278,10 +9269,10 @@
         <v>119.021483</v>
       </c>
       <c r="G37" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H37" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -9304,13 +9295,13 @@
         <v>118.281575</v>
       </c>
       <c r="G38" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H38" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I38" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -9333,10 +9324,10 @@
         <v>117.29057400000001</v>
       </c>
       <c r="G39" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H39" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -9359,10 +9350,10 @@
         <v>113.58255699999999</v>
       </c>
       <c r="G40" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H40" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -9385,10 +9376,10 @@
         <v>114.06455200000001</v>
       </c>
       <c r="G41" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H41" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -9411,10 +9402,10 @@
         <v>114.42355999999999</v>
       </c>
       <c r="G42" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H42" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -9437,10 +9428,10 @@
         <v>113.39942000000001</v>
       </c>
       <c r="G43" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H43" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -9463,13 +9454,13 @@
         <v>113.08855200000001</v>
       </c>
       <c r="G44" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H44" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I44" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -9492,10 +9483,10 @@
         <v>113.75841800000001</v>
       </c>
       <c r="G45" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H45" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -9518,10 +9509,10 @@
         <v>113.271429</v>
       </c>
       <c r="G46" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H46" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -9544,10 +9535,10 @@
         <v>112.47148799999999</v>
       </c>
       <c r="G47" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H47" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -9570,10 +9561,10 @@
         <v>113.12850899999999</v>
       </c>
       <c r="G48" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H48" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -9596,10 +9587,10 @@
         <v>116.688529</v>
       </c>
       <c r="G49" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H49" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -9622,10 +9613,10 @@
         <v>110.365554</v>
       </c>
       <c r="G50" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H50" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -9648,10 +9639,10 @@
         <v>116.129541</v>
       </c>
       <c r="G51" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H51" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -9674,10 +9665,10 @@
         <v>110.931541</v>
       </c>
       <c r="G52" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H52" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -9700,10 +9691,10 @@
         <v>114.707442</v>
       </c>
       <c r="G53" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H53" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -9726,10 +9717,10 @@
         <v>115.38154900000001</v>
       </c>
       <c r="G54" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H54" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -9752,10 +9743,10 @@
         <v>111.98848700000001</v>
       </c>
       <c r="G55" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H55" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -9778,10 +9769,10 @@
         <v>113.062465</v>
       </c>
       <c r="G56" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H56" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -9804,13 +9795,13 @@
         <v>116.62946599999999</v>
       </c>
       <c r="G57" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H57" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I57" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -9833,10 +9824,10 @@
         <v>116.37851499999999</v>
       </c>
       <c r="G58" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H58" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -9859,10 +9850,10 @@
         <v>113.60352399999999</v>
       </c>
       <c r="G59" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H59" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -9885,10 +9876,10 @@
         <v>112.051512</v>
       </c>
       <c r="G60" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H60" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -9911,10 +9902,10 @@
         <v>113.631416</v>
       </c>
       <c r="G61" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H61" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -9937,13 +9928,13 @@
         <v>113.199529</v>
       </c>
       <c r="G62" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H62" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I62" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -9966,13 +9957,13 @@
         <v>111.20653</v>
       </c>
       <c r="G63" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H63" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I63" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -9995,10 +9986,10 @@
         <v>112.459424</v>
       </c>
       <c r="G64" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H64" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -10021,13 +10012,13 @@
         <v>114.399503</v>
       </c>
       <c r="G65" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H65" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I65" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -10050,13 +10041,13 @@
         <v>114.314595</v>
       </c>
       <c r="G66" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H66" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I66" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -10079,10 +10070,10 @@
         <v>113.248549</v>
       </c>
       <c r="G67" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H67" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -10105,7 +10096,7 @@
         <v>112.534504</v>
       </c>
       <c r="G68" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -10128,13 +10119,13 @@
         <v>114.09748399999999</v>
       </c>
       <c r="G69" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H69" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I69" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -10157,10 +10148,10 @@
         <v>113.85847200000001</v>
       </c>
       <c r="G70" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H70" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -10183,13 +10174,13 @@
         <v>114.703481</v>
       </c>
       <c r="G71" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H71" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I71" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -10212,13 +10203,13 @@
         <v>114.303591</v>
       </c>
       <c r="G72" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H72" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I72" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -10241,10 +10232,10 @@
         <v>115.03559300000001</v>
       </c>
       <c r="G73" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H73" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -10267,10 +10258,10 @@
         <v>113.93359700000001</v>
       </c>
       <c r="G74" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="H74" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -10293,10 +10284,10 @@
         <v>114.023419</v>
       </c>
       <c r="G75" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H75" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -10319,13 +10310,13 @@
         <v>115.662449</v>
       </c>
       <c r="G76" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H76" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I76" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -10348,13 +10339,13 @@
         <v>114.02846700000001</v>
       </c>
       <c r="G77" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H77" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I77" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -10377,10 +10368,10 @@
         <v>111.755512</v>
       </c>
       <c r="G78" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H78" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -10403,13 +10394,13 @@
         <v>118.895522</v>
       </c>
       <c r="G79" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H79" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I79" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -10432,10 +10423,10 @@
         <v>109.84654</v>
       </c>
       <c r="G80" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H80" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -10458,10 +10449,10 @@
         <v>109.787441</v>
       </c>
       <c r="G81" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="H81" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -10484,10 +10475,10 @@
         <v>113.13946799999999</v>
       </c>
       <c r="G82" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H82" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -10510,13 +10501,13 @@
         <v>116.054388</v>
       </c>
       <c r="G83" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H83" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I83" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -10539,10 +10530,10 @@
         <v>106.80039499999999</v>
       </c>
       <c r="G84" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="H84" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
@@ -10565,10 +10556,10 @@
         <v>119.772367</v>
       </c>
       <c r="G85" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H85" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -10591,10 +10582,10 @@
         <v>107.3944</v>
       </c>
       <c r="G86" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="H86" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -10617,13 +10608,13 @@
         <v>122.250523</v>
       </c>
       <c r="G87" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H87" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I87" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
@@ -10646,13 +10637,13 @@
         <v>122.04436099999999</v>
       </c>
       <c r="G88" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H88" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I88" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
@@ -10675,13 +10666,13 @@
         <v>105.735373</v>
       </c>
       <c r="G89" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H89" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I89" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -10704,13 +10695,13 @@
         <v>112.55639600000001</v>
       </c>
       <c r="G90" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H90" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I90" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -10733,10 +10724,10 @@
         <v>113.30643600000001</v>
       </c>
       <c r="G91" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H91" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
@@ -10759,13 +10750,13 @@
         <v>113.122562</v>
       </c>
       <c r="G92" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H92" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I92" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
@@ -10788,13 +10779,13 @@
         <v>111.525527</v>
       </c>
       <c r="G93" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H93" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I93" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
@@ -10817,10 +10808,10 @@
         <v>113.587615</v>
       </c>
       <c r="G94" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H94" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
@@ -10843,7 +10834,7 @@
         <v>112.858577</v>
       </c>
       <c r="G95" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
@@ -10866,10 +10857,10 @@
         <v>112.439374</v>
       </c>
       <c r="G96" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H96" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -10892,10 +10883,10 @@
         <v>112.759593</v>
       </c>
       <c r="G97" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H97" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
@@ -10918,13 +10909,13 @@
         <v>111.013385</v>
       </c>
       <c r="G98" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H98" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I98" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -10947,10 +10938,10 @@
         <v>112.74062000000001</v>
       </c>
       <c r="G99" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H99" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
@@ -10973,13 +10964,13 @@
         <v>111.15044899999999</v>
       </c>
       <c r="G100" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="H100" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I100" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
@@ -11002,13 +10993,13 @@
         <v>117.12639900000001</v>
       </c>
       <c r="G101" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H101" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I101" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
@@ -11031,10 +11022,10 @@
         <v>120.389458</v>
       </c>
       <c r="G102" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H102" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
@@ -11057,10 +11048,10 @@
         <v>118.061455</v>
       </c>
       <c r="G103" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H103" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
@@ -11083,10 +11074,10 @@
         <v>117.330539</v>
       </c>
       <c r="G104" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H104" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
@@ -11109,7 +11100,7 @@
         <v>121.45441700000001</v>
       </c>
       <c r="G105" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
@@ -11132,10 +11123,10 @@
         <v>119.168374</v>
       </c>
       <c r="G106" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H106" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -11158,10 +11149,10 @@
         <v>116.593614</v>
       </c>
       <c r="G107" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H107" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
@@ -11184,10 +11175,10 @@
         <v>117.094492</v>
       </c>
       <c r="G108" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H108" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
@@ -11210,10 +11201,10 @@
         <v>119.533418</v>
       </c>
       <c r="G109" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H109" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
@@ -11236,10 +11227,10 @@
         <v>118.588463</v>
       </c>
       <c r="G110" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H110" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
@@ -11262,10 +11253,10 @@
         <v>115.99158799999999</v>
       </c>
       <c r="G111" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H111" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
@@ -11288,13 +11279,13 @@
         <v>117.9774</v>
       </c>
       <c r="G112" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H112" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I112" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
@@ -11317,10 +11308,10 @@
         <v>115.487549</v>
       </c>
       <c r="G113" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H113" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
@@ -11343,10 +11334,10 @@
         <v>117.68354600000001</v>
       </c>
       <c r="G114" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H114" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
@@ -11369,10 +11360,10 @@
         <v>122.127545</v>
       </c>
       <c r="G115" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="H115" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
@@ -11395,10 +11386,10 @@
         <v>116.36555300000001</v>
       </c>
       <c r="G116" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H116" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
@@ -11421,13 +11412,13 @@
         <v>118.36353699999999</v>
       </c>
       <c r="G117" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="H117" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I117" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
@@ -11450,10 +11441,10 @@
         <v>117.233441</v>
       </c>
       <c r="G118" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="H118" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
@@ -11476,13 +11467,13 @@
         <v>118.439435</v>
       </c>
       <c r="G119" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H119" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I119" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
@@ -11505,13 +11496,13 @@
         <v>118.513581</v>
       </c>
       <c r="G120" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="H120" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I120" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
@@ -11534,13 +11525,13 @@
         <v>115.78446599999999</v>
       </c>
       <c r="G121" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="H121" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I121" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
@@ -11563,7 +11554,7 @@
         <v>116.52641199999999</v>
       </c>
       <c r="G122" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
@@ -11586,10 +11577,10 @@
         <v>118.33940800000001</v>
       </c>
       <c r="G123" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H123" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
@@ -11612,10 +11603,10 @@
         <v>117.498424</v>
       </c>
       <c r="G124" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="H124" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
@@ -11638,10 +11629,10 @@
         <v>118.76553699999999</v>
       </c>
       <c r="G125" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H125" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
@@ -11664,7 +11655,7 @@
         <v>115.82043400000001</v>
       </c>
       <c r="G126" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
@@ -11687,13 +11678,13 @@
         <v>116.97054300000001</v>
       </c>
       <c r="G127" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="H127" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I127" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
@@ -11716,13 +11707,13 @@
         <v>117.39551400000001</v>
       </c>
       <c r="G128" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="H128" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I128" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
@@ -11745,10 +11736,10 @@
         <v>117.00638600000001</v>
       </c>
       <c r="G129" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="H129" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
@@ -11771,10 +11762,10 @@
         <v>116.804536</v>
       </c>
       <c r="G130" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="H130" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
@@ -11797,7 +11788,7 @@
         <v>117.81848100000001</v>
       </c>
       <c r="G131" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
@@ -11820,10 +11811,10 @@
         <v>117.063608</v>
       </c>
       <c r="G132" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="H132" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
@@ -11846,10 +11837,10 @@
         <v>118.16808899999999</v>
       </c>
       <c r="G133" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="H133" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
@@ -11872,7 +11863,7 @@
         <v>115.86458500000001</v>
       </c>
       <c r="G134" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
@@ -11895,13 +11886,13 @@
         <v>116.007533</v>
       </c>
       <c r="G135" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="H135" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I135" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
@@ -11924,13 +11915,13 @@
         <v>114.92353900000001</v>
       </c>
       <c r="G136" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="H136" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I136" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
@@ -11953,10 +11944,10 @@
         <v>117.07557300000001</v>
       </c>
       <c r="G137" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H137" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
@@ -11979,10 +11970,10 @@
         <v>116.364537</v>
       </c>
       <c r="G138" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="H138" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
@@ -12005,13 +11996,13 @@
         <v>114.94050799999999</v>
       </c>
       <c r="G139" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="H139" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I139" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
@@ -12034,10 +12025,10 @@
         <v>117.94946299999999</v>
       </c>
       <c r="G140" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H140" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
@@ -12060,13 +12051,13 @@
         <v>113.86149899999999</v>
       </c>
       <c r="G141" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H141" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I141" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
@@ -12089,10 +12080,10 @@
         <v>115.000514</v>
       </c>
       <c r="G142" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H142" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
@@ -12115,10 +12106,10 @@
         <v>114.42355999999999</v>
       </c>
       <c r="G143" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="H143" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
@@ -12141,10 +12132,10 @@
         <v>117.184574</v>
       </c>
       <c r="G144" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="H144" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
@@ -12167,10 +12158,10 @@
         <v>119.30347</v>
       </c>
       <c r="G145" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H145" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
@@ -12193,10 +12184,10 @@
         <v>118.096435</v>
       </c>
       <c r="G146" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="H146" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
@@ -12219,13 +12210,13 @@
         <v>118.682444</v>
       </c>
       <c r="G147" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="H147" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I147" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
@@ -12248,10 +12239,10 @@
         <v>117.023445</v>
       </c>
       <c r="G148" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="H148" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
@@ -12274,10 +12265,10 @@
         <v>119.55450999999999</v>
       </c>
       <c r="G149" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="H149" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
@@ -12300,7 +12291,7 @@
         <v>119.014521</v>
       </c>
       <c r="G150" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
@@ -12323,10 +12314,10 @@
         <v>117.65357899999999</v>
       </c>
       <c r="G151" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H151" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
@@ -12349,13 +12340,13 @@
         <v>117.645521</v>
       </c>
       <c r="G152" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="H152" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I152" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
@@ -12378,10 +12369,10 @@
         <v>118.18437</v>
       </c>
       <c r="G153" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="H153" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
@@ -12404,10 +12395,10 @@
         <v>114.31158600000001</v>
       </c>
       <c r="G154" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="H154" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
@@ -12430,10 +12421,10 @@
         <v>111.292552</v>
       </c>
       <c r="G155" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="H155" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
@@ -12456,10 +12447,10 @@
         <v>112.245519</v>
       </c>
       <c r="G156" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="H156" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
@@ -12482,13 +12473,13 @@
         <v>115.045529</v>
       </c>
       <c r="G157" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H157" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I157" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
@@ -12511,10 +12502,10 @@
         <v>114.901611</v>
       </c>
       <c r="G158" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="H158" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
@@ -12537,13 +12528,13 @@
         <v>113.922512</v>
       </c>
       <c r="G159" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="H159" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I159" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
@@ -12566,10 +12557,10 @@
         <v>114.878489</v>
       </c>
       <c r="G160" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="H160" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
@@ -12592,13 +12583,13 @@
         <v>114.328519</v>
       </c>
       <c r="G161" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="H161" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I161" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
@@ -12621,13 +12612,13 @@
         <v>110.804529</v>
       </c>
       <c r="G162" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="H162" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I162" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
@@ -12650,10 +12641,10 @@
         <v>112.128533</v>
       </c>
       <c r="G163" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="H163" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
@@ -12676,7 +12667,7 @@
         <v>112.206389</v>
       </c>
       <c r="G164" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
@@ -12699,13 +12690,13 @@
         <v>113.389448</v>
       </c>
       <c r="G165" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H165" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I165" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
@@ -12728,10 +12719,10 @@
         <v>109.49459299999999</v>
       </c>
       <c r="G166" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H166" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
@@ -12754,10 +12745,10 @@
         <v>112.94547</v>
       </c>
       <c r="G167" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="H167" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
@@ -12780,13 +12771,13 @@
         <v>113.140474</v>
       </c>
       <c r="G168" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="H168" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I168" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
@@ -12809,13 +12800,13 @@
         <v>112.950464</v>
       </c>
       <c r="G169" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H169" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I169" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
@@ -12838,10 +12829,10 @@
         <v>111.705449</v>
       </c>
       <c r="G170" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="H170" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
@@ -12864,13 +12855,13 @@
         <v>110.48553200000001</v>
       </c>
       <c r="G171" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H171" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I171" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
@@ -12893,10 +12884,10 @@
         <v>113.135488</v>
       </c>
       <c r="G172" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="H172" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
@@ -12919,10 +12910,10 @@
         <v>112.57844900000001</v>
       </c>
       <c r="G173" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="H173" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
@@ -12945,10 +12936,10 @@
         <v>111.47443199999999</v>
       </c>
       <c r="G174" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="H174" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
@@ -12971,10 +12962,10 @@
         <v>112.36151700000001</v>
       </c>
       <c r="G175" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H175" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
@@ -12997,10 +12988,10 @@
         <v>113.021458</v>
       </c>
       <c r="G176" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H176" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
@@ -13023,13 +13014,13 @@
         <v>112.001503</v>
       </c>
       <c r="G177" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="H177" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I177" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
@@ -13052,10 +13043,10 @@
         <v>109.74558</v>
       </c>
       <c r="G178" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H178" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
@@ -13078,10 +13069,10 @@
         <v>111.619454</v>
       </c>
       <c r="G179" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H179" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
@@ -13104,13 +13095,13 @@
         <v>110.00851400000001</v>
       </c>
       <c r="G180" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="H180" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I180" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
@@ -13133,10 +13124,10 @@
         <v>108.373454</v>
       </c>
       <c r="G181" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H181" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
@@ -13159,10 +13150,10 @@
         <v>110.20354500000001</v>
       </c>
       <c r="G182" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H182" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
@@ -13185,10 +13176,10 @@
         <v>109.126531</v>
       </c>
       <c r="G183" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="H183" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
@@ -13211,13 +13202,13 @@
         <v>109.434425</v>
       </c>
       <c r="G184" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H184" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I184" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
@@ -13240,7 +13231,7 @@
         <v>110.188453</v>
       </c>
       <c r="G185" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
@@ -13263,10 +13254,10 @@
         <v>106.624588</v>
       </c>
       <c r="G186" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="H186" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
@@ -13289,10 +13280,10 @@
         <v>111.57352400000001</v>
       </c>
       <c r="G187" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="H187" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
@@ -13315,10 +13306,10 @@
         <v>108.091503</v>
       </c>
       <c r="G188" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="H188" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
@@ -13341,10 +13332,10 @@
         <v>109.22745500000001</v>
       </c>
       <c r="G189" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="H189" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
@@ -13367,10 +13358,10 @@
         <v>107.37152</v>
       </c>
       <c r="G190" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="H190" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
@@ -13393,10 +13384,10 @@
         <v>111.285518</v>
       </c>
       <c r="G191" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H191" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
@@ -13419,10 +13410,10 @@
         <v>108.36042</v>
       </c>
       <c r="G192" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="H192" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
@@ -13445,10 +13436,10 @@
         <v>108.66058</v>
       </c>
       <c r="G193" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="H193" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
@@ -13471,10 +13462,10 @@
         <v>109.60551599999999</v>
       </c>
       <c r="G194" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="H194" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
@@ -13497,13 +13488,13 @@
         <v>110.325526</v>
       </c>
       <c r="G195" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="H195" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I195" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
@@ -13526,13 +13517,13 @@
         <v>109.51855999999999</v>
       </c>
       <c r="G196" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="H196" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I196" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
@@ -13555,10 +13546,10 @@
         <v>126.541611</v>
       </c>
       <c r="G197" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="H197" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
@@ -13581,10 +13572,10 @@
         <v>123.92456900000001</v>
       </c>
       <c r="G198" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="H198" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
@@ -13607,10 +13598,10 @@
         <v>125.108661</v>
       </c>
       <c r="G199" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="H199" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
@@ -13633,13 +13624,13 @@
         <v>129.639544</v>
       </c>
       <c r="G200" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="H200" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I200" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
@@ -13662,10 +13653,10 @@
         <v>130.97561999999999</v>
       </c>
       <c r="G201" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H201" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
@@ -13688,13 +13679,13 @@
         <v>130.30443299999999</v>
       </c>
       <c r="G202" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H202" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I202" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
@@ -13717,10 +13708,10 @@
         <v>131.16534200000001</v>
       </c>
       <c r="G203" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="H203" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
@@ -13743,10 +13734,10 @@
         <v>128.847544</v>
       </c>
       <c r="G204" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="H204" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
@@ -13769,10 +13760,10 @@
         <v>130.327358</v>
       </c>
       <c r="G205" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="H205" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
@@ -13795,10 +13786,10 @@
         <v>131.01154399999999</v>
       </c>
       <c r="G206" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="H206" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
@@ -13821,13 +13812,13 @@
         <v>127.535487</v>
       </c>
       <c r="G207" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="H207" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I207" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
@@ -13850,10 +13841,10 @@
         <v>126.975358</v>
       </c>
       <c r="G208" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="H208" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
@@ -13876,13 +13867,13 @@
         <v>124.15292700000001</v>
       </c>
       <c r="G209" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="H209" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I209" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
@@ -13905,10 +13896,10 @@
         <v>125.330606</v>
       </c>
       <c r="G210" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="H210" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
@@ -13931,7 +13922,7 @@
         <v>126.555634</v>
       </c>
       <c r="G211" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
@@ -13954,10 +13945,10 @@
         <v>124.356483</v>
       </c>
       <c r="G212" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="H212" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
@@ -13980,10 +13971,10 @@
         <v>125.150423</v>
       </c>
       <c r="G213" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="H213" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
@@ -14006,10 +13997,10 @@
         <v>125.94661000000001</v>
       </c>
       <c r="G214" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="H214" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
@@ -14032,10 +14023,10 @@
         <v>126.42962799999999</v>
       </c>
       <c r="G215" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="H215" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
@@ -14058,10 +14049,10 @@
         <v>124.83148</v>
       </c>
       <c r="G216" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="H216" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
@@ -14084,10 +14075,10 @@
         <v>122.84558699999999</v>
       </c>
       <c r="G217" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="H217" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
@@ -14110,13 +14101,13 @@
         <v>129.477372</v>
       </c>
       <c r="G218" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="H218" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I218" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
@@ -14139,13 +14130,13 @@
         <v>123.455986</v>
       </c>
       <c r="G219" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="H219" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I219" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
@@ -14168,10 +14159,10 @@
         <v>121.621628</v>
       </c>
       <c r="G220" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="H220" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
@@ -14194,10 +14185,10 @@
         <v>123.00137100000001</v>
       </c>
       <c r="G221" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="H221" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
@@ -14220,13 +14211,13 @@
         <v>123.96437299999999</v>
       </c>
       <c r="G222" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="H222" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I222" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
@@ -14249,10 +14240,10 @@
         <v>123.69251</v>
       </c>
       <c r="G223" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="H223" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
@@ -14275,10 +14266,10 @@
         <v>121.132599</v>
       </c>
       <c r="G224" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="H224" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
@@ -14301,10 +14292,10 @@
         <v>124.36154999999999</v>
       </c>
       <c r="G225" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="H225" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
@@ -14327,10 +14318,10 @@
         <v>122.241575</v>
       </c>
       <c r="G226" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="H226" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.2">
@@ -14353,10 +14344,10 @@
         <v>121.676407</v>
       </c>
       <c r="G227" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="H227" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
@@ -14379,10 +14370,10 @@
         <v>122.07749099999999</v>
       </c>
       <c r="G228" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="H228" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.2">
@@ -14405,10 +14396,10 @@
         <v>120.84339900000001</v>
       </c>
       <c r="G229" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="H229" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
@@ -14431,10 +14422,10 @@
         <v>123.24336599999999</v>
       </c>
       <c r="G230" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="H230" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.2">
@@ -14457,10 +14448,10 @@
         <v>123.732367</v>
       </c>
       <c r="G231" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="H231" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
@@ -14483,7 +14474,7 @@
         <v>120.45749600000001</v>
       </c>
       <c r="G232" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.2">
@@ -14506,10 +14497,10 @@
         <v>87.624437999999998</v>
       </c>
       <c r="G233" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="H233" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.2">
@@ -14532,10 +14523,10 @@
         <v>84.895898000000003</v>
       </c>
       <c r="G234" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="H234" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.2">
@@ -14558,13 +14549,13 @@
         <v>89.180436999999998</v>
       </c>
       <c r="G235" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="H235" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I235" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.2">
@@ -14587,13 +14578,13 @@
         <v>86.181489999999997</v>
       </c>
       <c r="G236" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="H236" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I236" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
@@ -14616,13 +14607,13 @@
         <v>87.286033000000003</v>
       </c>
       <c r="G237" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="H237" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I237" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.2">
@@ -14645,13 +14636,13 @@
         <v>81.330541999999994</v>
       </c>
       <c r="G238" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="H238" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I238" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
@@ -14674,13 +14665,13 @@
         <v>93.523139</v>
       </c>
       <c r="G239" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="H239" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I239" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
@@ -14703,13 +14694,13 @@
         <v>82.072909999999993</v>
       </c>
       <c r="G240" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="H240" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I240" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
@@ -14732,13 +14723,13 @@
         <v>80.266938999999994</v>
       </c>
       <c r="G241" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="H241" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I241" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
@@ -14761,13 +14752,13 @@
         <v>76.174312999999998</v>
       </c>
       <c r="G242" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="H242" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I242" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
@@ -14790,10 +14781,10 @@
         <v>75.996395000000007</v>
       </c>
       <c r="G243" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="H243" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
@@ -14816,10 +14807,10 @@
         <v>79.928511</v>
       </c>
       <c r="G244" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="H244" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
@@ -14842,13 +14833,13 @@
         <v>82.987233000000003</v>
       </c>
       <c r="G245" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="H245" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I245" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
@@ -14871,10 +14862,10 @@
         <v>87.835809999999995</v>
       </c>
       <c r="G246" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="H246" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
@@ -14897,13 +14888,13 @@
         <v>87.549932999999996</v>
       </c>
       <c r="G247" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="H247" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I247" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
@@ -14926,13 +14917,13 @@
         <v>86.086889999999997</v>
       </c>
       <c r="G248" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="H248" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I248" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
@@ -14955,10 +14946,10 @@
         <v>103.840524</v>
       </c>
       <c r="G249" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="H249" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
@@ -14981,7 +14972,7 @@
         <v>102.194603</v>
       </c>
       <c r="G250" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.2">
@@ -15004,13 +14995,13 @@
         <v>98.296199999999999</v>
       </c>
       <c r="G251" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H251" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I251" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.2">
@@ -15033,13 +15024,13 @@
         <v>98.500681</v>
       </c>
       <c r="G252" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="H252" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I252" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.2">
@@ -15062,13 +15053,13 @@
         <v>103.21639</v>
       </c>
       <c r="G253" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="H253" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I253" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
@@ -15091,10 +15082,10 @@
         <v>91.140507999999997</v>
       </c>
       <c r="G254" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="H254" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.2">
@@ -15117,13 +15108,13 @@
         <v>104.144447</v>
       </c>
       <c r="G255" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="H255" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I255" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
@@ -15146,10 +15137,10 @@
         <v>105.731421</v>
       </c>
       <c r="G256" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="H256" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
@@ -15172,10 +15163,10 @@
         <v>102.64455599999999</v>
       </c>
       <c r="G257" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="H257" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
@@ -15198,13 +15189,13 @@
         <v>106.67144399999999</v>
       </c>
       <c r="G258" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="H258" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I258" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
@@ -15227,13 +15218,13 @@
         <v>100.45640899999999</v>
       </c>
       <c r="G259" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="H259" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I259" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
@@ -15256,13 +15247,13 @@
         <v>107.649384</v>
       </c>
       <c r="G260" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="H260" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I260" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
@@ -15285,10 +15276,10 @@
         <v>104.63241600000001</v>
       </c>
       <c r="G261" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="H261" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
@@ -15311,7 +15302,7 @@
         <v>104.928578</v>
       </c>
       <c r="G262" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
@@ -15334,13 +15325,13 @@
         <v>101.784446</v>
       </c>
       <c r="G263" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="H263" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I263" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
@@ -15363,13 +15354,13 @@
         <v>101.781853</v>
       </c>
       <c r="G264" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="H264" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I264" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
@@ -15392,10 +15383,10 @@
         <v>100.90973700000001</v>
       </c>
       <c r="G265" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="H265" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
@@ -15418,13 +15409,13 @@
         <v>102.026543</v>
       </c>
       <c r="G266" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="H266" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I266" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.2">
@@ -15447,10 +15438,10 @@
         <v>100.61898600000001</v>
       </c>
       <c r="G267" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="H267" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
@@ -15473,10 +15464,10 @@
         <v>100.25159600000001</v>
       </c>
       <c r="G268" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="H268" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
@@ -15499,10 +15490,10 @@
         <v>101.78344</v>
       </c>
       <c r="G269" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="H269" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
@@ -15525,13 +15516,13 @@
         <v>93.340123000000006</v>
       </c>
       <c r="G270" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="H270" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I270" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.2">
@@ -15554,10 +15545,10 @@
         <v>106.238496</v>
       </c>
       <c r="G271" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="H271" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
@@ -15580,13 +15571,13 @@
         <v>106.390597</v>
       </c>
       <c r="G272" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="H272" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I272" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
@@ -15609,10 +15600,10 @@
         <v>106.248575</v>
       </c>
       <c r="G273" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="H273" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.2">
@@ -15635,10 +15626,10 @@
         <v>106.205367</v>
       </c>
       <c r="G274" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="H274" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
@@ -15661,13 +15652,13 @@
         <v>105.203568</v>
       </c>
       <c r="G275" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="H275" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I275" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.2">
@@ -15690,10 +15681,10 @@
         <v>108.946465</v>
       </c>
       <c r="G276" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="H276" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
@@ -15716,10 +15707,10 @@
         <v>108.71542100000001</v>
       </c>
       <c r="G277" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="H277" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.2">
@@ -15742,13 +15733,13 @@
         <v>108.952403</v>
       </c>
       <c r="G278" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="H278" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I278" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
@@ -15771,10 +15762,10 @@
         <v>109.496579</v>
       </c>
       <c r="G279" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="H279" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
@@ -15797,10 +15788,10 @@
         <v>107.24457200000001</v>
       </c>
       <c r="G280" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="H280" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.2">
@@ -15823,10 +15814,10 @@
         <v>109.516593</v>
       </c>
       <c r="G281" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="H281" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.2">
@@ -15849,10 +15840,10 @@
         <v>107.029427</v>
       </c>
       <c r="G282" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="H282" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.2">
@@ -15875,13 +15866,13 @@
         <v>109.741618</v>
       </c>
       <c r="G283" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H283" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I283" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.2">
@@ -15904,10 +15895,10 @@
         <v>109.03560400000001</v>
       </c>
       <c r="G284" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="H284" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.2">
@@ -15930,13 +15921,13 @@
         <v>109.924415</v>
       </c>
       <c r="G285" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="H285" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I285" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
@@ -15959,7 +15950,7 @@
         <v>104.08153</v>
       </c>
       <c r="G286" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.2">
@@ -15982,13 +15973,13 @@
         <v>104.68556</v>
       </c>
       <c r="G287" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="H287" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I287" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.2">
@@ -16011,10 +16002,10 @@
         <v>104.64940300000001</v>
       </c>
       <c r="G288" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="H288" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.2">
@@ -16037,13 +16028,13 @@
         <v>101.725544</v>
       </c>
       <c r="G289" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="H289" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I289" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.2">
@@ -16066,10 +16057,10 @@
         <v>105.448526</v>
       </c>
       <c r="G290" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H290" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.2">
@@ -16092,10 +16083,10 @@
         <v>104.78444500000001</v>
       </c>
       <c r="G291" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="H291" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.2">
@@ -16118,10 +16109,10 @@
         <v>104.404417</v>
       </c>
       <c r="G292" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="H292" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.2">
@@ -16144,10 +16135,10 @@
         <v>105.599424</v>
       </c>
       <c r="G293" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="H293" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.2">
@@ -16170,13 +16161,13 @@
         <v>105.06459099999999</v>
       </c>
       <c r="G294" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="H294" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I294" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.2">
@@ -16199,10 +16190,10 @@
         <v>103.77254000000001</v>
       </c>
       <c r="G295" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="H295" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.2">
@@ -16225,10 +16216,10 @@
         <v>103.856567</v>
       </c>
       <c r="G296" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="H296" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.2">
@@ -16251,10 +16242,10 @@
         <v>106.639554</v>
       </c>
       <c r="G297" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="H297" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.2">
@@ -16277,10 +16268,10 @@
         <v>107.474592</v>
       </c>
       <c r="G298" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="H298" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.2">
@@ -16303,10 +16294,10 @@
         <v>104.63443700000001</v>
       </c>
       <c r="G299" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="H299" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.2">
@@ -16329,10 +16320,10 @@
         <v>105.850419</v>
       </c>
       <c r="G300" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H300" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.2">
@@ -16355,7 +16346,7 @@
         <v>106.117504</v>
       </c>
       <c r="G301" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.2">
@@ -16378,13 +16369,13 @@
         <v>106.751582</v>
       </c>
       <c r="G302" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="H302" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I302" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.2">
@@ -16407,10 +16398,10 @@
         <v>102.231416</v>
       </c>
       <c r="G303" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="H303" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.2">
@@ -16433,10 +16424,10 @@
         <v>101.96854500000001</v>
       </c>
       <c r="G304" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="H304" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.2">
@@ -16459,10 +16450,10 @@
         <v>102.27350199999999</v>
       </c>
       <c r="G305" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="H305" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.2">
@@ -16485,13 +16476,13 @@
         <v>103.049539</v>
       </c>
       <c r="G306" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H306" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I306" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.2">
@@ -16514,10 +16505,10 @@
         <v>106.558437</v>
       </c>
       <c r="G307" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="H307" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.2">
@@ -16540,13 +16531,13 @@
         <v>106.63658</v>
       </c>
       <c r="G308" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="H308" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I308" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.2">
@@ -16569,10 +16560,10 @@
         <v>105.95441599999999</v>
       </c>
       <c r="G309" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="H309" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.2">
@@ -16595,10 +16586,10 @@
         <v>109.18743600000001</v>
       </c>
       <c r="G310" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="H310" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.2">
@@ -16621,13 +16612,13 @@
         <v>104.91249000000001</v>
       </c>
       <c r="G311" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="H311" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I311" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.2">
@@ -16650,10 +16641,10 @@
         <v>107.989447</v>
       </c>
       <c r="G312" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="H312" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.2">
@@ -16676,10 +16667,10 @@
         <v>107.5284</v>
       </c>
       <c r="G313" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="H313" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.2">
@@ -16702,13 +16693,13 @@
         <v>106.933426</v>
       </c>
       <c r="G314" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="H314" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I314" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.2">
@@ -16731,10 +16722,10 @@
         <v>104.837553</v>
       </c>
       <c r="G315" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="H315" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.2">
@@ -16757,10 +16748,10 @@
         <v>105.31158000000001</v>
       </c>
       <c r="G316" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="H316" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.2">
@@ -16783,7 +16774,7 @@
         <v>102.852451</v>
       </c>
       <c r="G317" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.2">
@@ -16806,10 +16797,10 @@
         <v>103.802436</v>
       </c>
       <c r="G318" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H318" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.2">
@@ -16832,13 +16823,13 @@
         <v>99.177276000000006</v>
       </c>
       <c r="G319" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="H319" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I319" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.2">
@@ -16861,13 +16852,13 @@
         <v>100.232462</v>
       </c>
       <c r="G320" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="H320" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I320" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.2">
@@ -16890,13 +16881,13 @@
         <v>100.27458300000001</v>
       </c>
       <c r="G321" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="H321" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I321" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.2">
@@ -16919,10 +16910,10 @@
         <v>100.803443</v>
       </c>
       <c r="G322" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="H322" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.2">
@@ -16945,10 +16936,10 @@
         <v>102.553557</v>
       </c>
       <c r="G323" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="H323" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.2">
@@ -16971,10 +16962,10 @@
         <v>100.98349899999999</v>
       </c>
       <c r="G324" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="H324" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.2">
@@ -16997,13 +16988,13 @@
         <v>100.095443</v>
       </c>
       <c r="G325" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="H325" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I325" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.2">
@@ -17026,13 +17017,13 @@
         <v>104.222573</v>
       </c>
       <c r="G326" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="H326" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I326" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.2">
@@ -17055,13 +17046,13 @@
         <v>101.534412</v>
       </c>
       <c r="G327" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="H327" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I327" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.2">
@@ -17084,13 +17075,13 @@
         <v>99.709530999999998</v>
       </c>
       <c r="G328" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="H328" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I328" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.2">
@@ -17113,13 +17104,13 @@
         <v>103.72351</v>
       </c>
       <c r="G329" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="H329" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I329" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.2">
@@ -17142,10 +17133,10 @@
         <v>103.381552</v>
       </c>
       <c r="G330" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="H330" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.2">
@@ -17168,10 +17159,10 @@
         <v>98.591356000000005</v>
       </c>
       <c r="G331" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="H331" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.2">
@@ -17194,10 +17185,10 @@
         <v>98.863291000000004</v>
       </c>
       <c r="G332" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="H332" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.2">
@@ -17220,10 +17211,10 @@
         <v>91.120823000000001</v>
       </c>
       <c r="G333" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="H333" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.2">
@@ -17246,13 +17237,13 @@
         <v>97.174824999999998</v>
       </c>
       <c r="G334" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="H334" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I334" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.2">
@@ -17275,10 +17266,10 @@
         <v>91.778678999999997</v>
       </c>
       <c r="G335" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="H335" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.2">
@@ -17301,13 +17292,13 @@
         <v>88.902951999999999</v>
       </c>
       <c r="G336" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="H336" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I336" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.2">
@@ -17330,13 +17321,13 @@
         <v>91.134439999999998</v>
       </c>
       <c r="G337" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="H337" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I337" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.2">
@@ -17359,13 +17350,13 @@
         <v>80.112780999999998</v>
       </c>
       <c r="G338" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H338" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I338" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.2">
@@ -17388,13 +17379,13 @@
         <v>94.362050999999994</v>
       </c>
       <c r="G339" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="H339" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I339" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
